--- a/25-26/Invoices 25-26/08 BK008 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/25-26/Invoices 25-26/08 BK008 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\25-26\Invoices 25-26\08 BK008 June 25-26 AA Stone Investment Trading Company (VK)(Nam vu) Absolute Short\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D15E8DA-5A5A-458D-BA6C-8A5D1DE25190}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AF63C5B-C54C-4D06-8E9F-78450AE91314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7245" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -635,11 +635,18 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-14009]dd/mm/yyyy;@"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -811,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -1193,430 +1200,442 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="181">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="6" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2055,7 +2074,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="66" t="s">
         <v>146</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2099,7 +2118,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E6" s="70" t="s">
+      <c r="E6" s="69" t="s">
         <v>147</v>
       </c>
     </row>
@@ -3267,7 +3286,7 @@
       <c r="Y5" s="4"/>
       <c r="Z5" s="4"/>
     </row>
-    <row r="6" spans="1:26" s="68" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>57</v>
       </c>
@@ -31302,8 +31321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="N34" sqref="N34"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="N37" sqref="N37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31322,7 +31341,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+      <c r="A1" s="105" t="s">
         <v>38</v>
       </c>
       <c r="B1" s="76"/>
@@ -31372,18 +31391,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="105" t="str">
+      <c r="E4" s="106" t="str">
         <f>'input data'!B3</f>
         <v>BK008/25-26</v>
       </c>
       <c r="F4" s="81"/>
       <c r="G4" s="79"/>
-      <c r="H4" s="106">
+      <c r="H4" s="107">
         <f>'input data'!B4</f>
         <v>45836</v>
       </c>
-      <c r="I4" s="107"/>
-      <c r="J4" s="108"/>
+      <c r="I4" s="108"/>
+      <c r="J4" s="109"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31413,7 +31432,7 @@
       <c r="E6" s="78"/>
       <c r="F6" s="81"/>
       <c r="G6" s="79"/>
-      <c r="H6" s="112" t="str">
+      <c r="H6" s="113" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
@@ -31501,32 +31520,32 @@
       <c r="B11" s="85"/>
       <c r="C11" s="85"/>
       <c r="D11" s="86"/>
-      <c r="E11" s="109" t="s">
+      <c r="E11" s="110" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="92"/>
       <c r="G11" s="93"/>
-      <c r="H11" s="114" t="s">
+      <c r="H11" s="115" t="s">
         <v>59</v>
       </c>
       <c r="I11" s="92"/>
       <c r="J11" s="93"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="110" t="str">
+      <c r="A12" s="111" t="str">
         <f>'input data'!B6</f>
         <v>To the Order</v>
       </c>
       <c r="B12" s="76"/>
       <c r="C12" s="76"/>
       <c r="D12" s="88"/>
-      <c r="E12" s="111" t="str">
+      <c r="E12" s="112" t="str">
         <f>'input data'!B16</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="76"/>
       <c r="G12" s="88"/>
-      <c r="H12" s="115" t="str">
+      <c r="H12" s="116" t="str">
         <f>'input data'!B17</f>
         <v>100% Against Documents</v>
       </c>
@@ -31552,7 +31571,7 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="117" t="s">
         <v>61</v>
       </c>
       <c r="F14" s="85"/>
@@ -31562,7 +31581,7 @@
       <c r="J14" s="86"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="str">
+      <c r="A15" s="121" t="str">
         <f>'input data'!B7</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -31642,41 +31661,41 @@
       <c r="J20" s="79"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="114" t="s">
         <v>62</v>
       </c>
       <c r="B21" s="86"/>
-      <c r="C21" s="113" t="s">
+      <c r="C21" s="114" t="s">
         <v>29</v>
       </c>
       <c r="D21" s="86"/>
-      <c r="E21" s="113" t="s">
+      <c r="E21" s="114" t="s">
         <v>63</v>
       </c>
       <c r="F21" s="85"/>
       <c r="G21" s="86"/>
-      <c r="H21" s="113" t="s">
+      <c r="H21" s="114" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="85"/>
       <c r="J21" s="86"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="121" t="s">
+      <c r="A22" s="122" t="s">
         <v>64</v>
       </c>
       <c r="B22" s="88"/>
-      <c r="C22" s="123" t="str">
+      <c r="C22" s="124" t="str">
         <f>'input data'!B19</f>
         <v>CHENNAI</v>
       </c>
       <c r="D22" s="88"/>
-      <c r="E22" s="124" t="s">
+      <c r="E22" s="125" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="76"/>
       <c r="G22" s="88"/>
-      <c r="H22" s="124" t="str">
+      <c r="H22" s="125" t="str">
         <f>'input data'!B23</f>
         <v>VIETNAM</v>
       </c>
@@ -31684,7 +31703,7 @@
       <c r="J22" s="88"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="125"/>
+      <c r="A23" s="126"/>
       <c r="B23" s="88"/>
       <c r="C23" s="90"/>
       <c r="D23" s="79"/>
@@ -31700,7 +31719,7 @@
         <v>66</v>
       </c>
       <c r="B24" s="86"/>
-      <c r="C24" s="122" t="s">
+      <c r="C24" s="123" t="s">
         <v>30</v>
       </c>
       <c r="D24" s="86"/>
@@ -31709,7 +31728,7 @@
       </c>
       <c r="F24" s="85"/>
       <c r="G24" s="86"/>
-      <c r="H24" s="122" t="s">
+      <c r="H24" s="123" t="s">
         <v>32</v>
       </c>
       <c r="I24" s="85"/>
@@ -31765,7 +31784,7 @@
       <c r="B27" s="87"/>
       <c r="C27" s="76"/>
       <c r="D27" s="88"/>
-      <c r="E27" s="83"/>
+      <c r="E27" s="180"/>
       <c r="F27" s="80" t="s">
         <v>72</v>
       </c>
@@ -31787,8 +31806,8 @@
         <v>POLISHED GRANITE SLABS</v>
       </c>
       <c r="C28" s="92"/>
-      <c r="D28" s="93"/>
-      <c r="E28" s="28">
+      <c r="D28" s="92"/>
+      <c r="E28" s="181">
         <v>68022390</v>
       </c>
       <c r="F28" s="95">
@@ -31796,27 +31815,27 @@
         <v>478.62</v>
       </c>
       <c r="G28" s="93"/>
-      <c r="H28" s="73">
+      <c r="H28" s="72">
         <f>'input data'!B27</f>
         <v>18</v>
       </c>
-      <c r="I28" s="126">
+      <c r="I28" s="118">
         <f>H28*F28</f>
         <v>8615.16</v>
       </c>
       <c r="J28" s="93"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
+      <c r="A29" s="28"/>
       <c r="B29" s="78"/>
       <c r="C29" s="81"/>
       <c r="D29" s="79"/>
-      <c r="E29" s="29"/>
+      <c r="E29" s="28"/>
       <c r="F29" s="78"/>
       <c r="G29" s="96"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="72"/>
-      <c r="J29" s="30"/>
+      <c r="H29" s="74"/>
+      <c r="I29" s="71"/>
+      <c r="J29" s="29"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
@@ -31833,11 +31852,11 @@
         <v>75</v>
       </c>
       <c r="F30" s="4"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="118" t="s">
+      <c r="G30" s="70"/>
+      <c r="H30" s="119" t="s">
         <v>155</v>
       </c>
-      <c r="I30" s="71"/>
+      <c r="I30" s="70"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -31857,9 +31876,9 @@
         <v>77</v>
       </c>
       <c r="F31" s="4"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="71"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="70"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -31870,20 +31889,20 @@
       <c r="E32" s="4"/>
       <c r="F32" s="97"/>
       <c r="G32" s="98"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="71"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="70"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
-      <c r="G33" s="72"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="117">
+      <c r="A33" s="30"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="32"/>
+      <c r="F33" s="32"/>
+      <c r="G33" s="71"/>
+      <c r="H33" s="120"/>
+      <c r="I33" s="104">
         <v>-0.16</v>
       </c>
       <c r="J33" s="93"/>
@@ -31898,7 +31917,7 @@
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
-      <c r="H34" s="74"/>
+      <c r="H34" s="73"/>
       <c r="I34" s="102">
         <f>SUM(I28:J33)</f>
         <v>8615</v>
@@ -31906,16 +31925,16 @@
       <c r="J34" s="86"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
+      <c r="A35" s="33" t="s">
         <v>158</v>
       </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-      <c r="G35" s="33"/>
-      <c r="H35" s="30"/>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="32"/>
+      <c r="F35" s="32"/>
+      <c r="G35" s="32"/>
+      <c r="H35" s="29"/>
       <c r="I35" s="90"/>
       <c r="J35" s="79"/>
     </row>
@@ -31982,14 +32001,14 @@
       <c r="B40" s="81"/>
       <c r="C40" s="81"/>
       <c r="D40" s="79"/>
-      <c r="E40" s="31" t="s">
+      <c r="E40" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="F40" s="33"/>
-      <c r="G40" s="33"/>
-      <c r="H40" s="33"/>
-      <c r="I40" s="33"/>
-      <c r="J40" s="30"/>
+      <c r="F40" s="32"/>
+      <c r="G40" s="32"/>
+      <c r="H40" s="32"/>
+      <c r="I40" s="32"/>
+      <c r="J40" s="29"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32951,7 +32970,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="63">
-    <mergeCell ref="I28:J28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="H30:H33"/>
     <mergeCell ref="A15:D20"/>
@@ -33007,6 +33025,7 @@
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I28:J28"/>
     <mergeCell ref="A25:B25"/>
     <mergeCell ref="C25:D25"/>
     <mergeCell ref="E25:G25"/>
@@ -33030,7 +33049,7 @@
   <dimension ref="A1:J998"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M30" sqref="M30"/>
+      <selection activeCell="N29" sqref="N29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -33082,16 +33101,16 @@
       <c r="D3" s="76"/>
       <c r="E3" s="76"/>
       <c r="F3" s="88"/>
-      <c r="G3" s="105" t="str">
+      <c r="G3" s="106" t="str">
         <f>Invoice!E4</f>
         <v>BK008/25-26</v>
       </c>
       <c r="H3" s="79"/>
-      <c r="I3" s="106">
+      <c r="I3" s="107">
         <f>Invoice!H4</f>
         <v>45836</v>
       </c>
-      <c r="J3" s="108"/>
+      <c r="J3" s="109"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -33136,9 +33155,9 @@
       <c r="E6" s="76"/>
       <c r="F6" s="20"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="35"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
@@ -33149,7 +33168,7 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="20"/>
-      <c r="G7" s="36" t="s">
+      <c r="G7" s="35" t="s">
         <v>92</v>
       </c>
       <c r="H7" s="17"/>
@@ -33157,7 +33176,7 @@
       <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="36" t="s">
         <v>93</v>
       </c>
       <c r="B8" s="4"/>
@@ -33165,15 +33184,15 @@
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
       <c r="F8" s="20"/>
-      <c r="G8" s="38" t="s">
+      <c r="G8" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="39"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="40" t="s">
         <v>53</v>
       </c>
       <c r="B9" s="4"/>
@@ -33181,26 +33200,26 @@
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="20"/>
-      <c r="G9" s="38" t="s">
+      <c r="G9" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="39"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="30"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="29"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="130" t="s">
@@ -33211,7 +33230,7 @@
       <c r="D11" s="85"/>
       <c r="E11" s="85"/>
       <c r="F11" s="18"/>
-      <c r="G11" s="36" t="s">
+      <c r="G11" s="35" t="s">
         <v>96</v>
       </c>
       <c r="H11" s="17"/>
@@ -33239,7 +33258,7 @@
       <c r="C13" s="81"/>
       <c r="D13" s="81"/>
       <c r="E13" s="81"/>
-      <c r="F13" s="30"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
@@ -33260,7 +33279,7 @@
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="120" t="str">
+      <c r="A15" s="121" t="str">
         <f>Invoice!A15</f>
         <v>A-A STONE INVESTMENT TRADING COMPANY LIMITED
  34/5 TRAN KHANH DU STREET, TAN DINH WARD, 
@@ -33395,10 +33414,10 @@
       </c>
       <c r="E23" s="85"/>
       <c r="F23" s="86"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="45"/>
+      <c r="G23" s="42"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="78"/>
@@ -33410,10 +33429,10 @@
       </c>
       <c r="E24" s="81"/>
       <c r="F24" s="79"/>
-      <c r="G24" s="31"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="29"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="132" t="s">
@@ -33434,13 +33453,13 @@
       <c r="J25" s="93"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="125" t="str">
+      <c r="A26" s="126" t="str">
         <f>Invoice!E25</f>
         <v>DA NANG</v>
       </c>
       <c r="B26" s="76"/>
       <c r="C26" s="88"/>
-      <c r="D26" s="125" t="str">
+      <c r="D26" s="126" t="str">
         <f>Invoice!H25</f>
         <v>DA NANG</v>
       </c>
@@ -33455,16 +33474,16 @@
       <c r="J26" s="86"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="46"/>
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
+      <c r="A27" s="45"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="47"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="26" t="s">
@@ -33479,8 +33498,8 @@
       </c>
       <c r="E28" s="81"/>
       <c r="F28" s="81"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="50"/>
+      <c r="G28" s="48"/>
+      <c r="H28" s="49"/>
       <c r="I28" s="80" t="s">
         <v>72</v>
       </c>
@@ -33510,16 +33529,16 @@
       <c r="J29" s="93"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
       <c r="I30" s="150">
         <f>SUM(I29:J29)</f>
         <v>478.62</v>
@@ -33527,7 +33546,7 @@
       <c r="J30" s="93"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -33535,28 +33554,28 @@
       <c r="F31" s="4"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="32"/>
-      <c r="J31" s="35"/>
+      <c r="I31" s="31"/>
+      <c r="J31" s="34"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="125" t="s">
+      <c r="A32" s="126" t="s">
         <v>107</v>
       </c>
       <c r="B32" s="76"/>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>35</v>
       </c>
       <c r="D32" s="97" t="s">
         <v>74</v>
       </c>
       <c r="E32" s="76"/>
-      <c r="F32" s="32" t="s">
+      <c r="F32" s="31" t="s">
         <v>75</v>
       </c>
-      <c r="G32" s="32"/>
+      <c r="G32" s="31"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="32"/>
-      <c r="J32" s="35"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="34"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="99" t="str">
@@ -33564,7 +33583,7 @@
         <v>TCLU2387129</v>
       </c>
       <c r="B33" s="76"/>
-      <c r="C33" s="52">
+      <c r="C33" s="51">
         <f>'input data'!B25</f>
         <v>528</v>
       </c>
@@ -33572,68 +33591,68 @@
         <v>108</v>
       </c>
       <c r="E33" s="76"/>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="51" t="s">
         <v>109</v>
       </c>
-      <c r="G33" s="52"/>
+      <c r="G33" s="51"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="20"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53"/>
-      <c r="H34" s="53"/>
-      <c r="I34" s="53"/>
-      <c r="J34" s="54"/>
+      <c r="B34" s="52"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="53"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53" t="str">
+      <c r="B35" s="52"/>
+      <c r="C35" s="52" t="str">
         <f>'input data'!B14</f>
         <v>Loose packing</v>
       </c>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53"/>
-      <c r="H35" s="53"/>
-      <c r="I35" s="53"/>
-      <c r="J35" s="54"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="53"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="23" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53"/>
-      <c r="H36" s="53"/>
-      <c r="I36" s="53"/>
-      <c r="J36" s="54"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="53"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="56"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="57"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="55"/>
+      <c r="C37" s="55"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="55"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="56"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="103" t="s">
@@ -34734,7 +34753,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="58"/>
+      <c r="A1" s="57"/>
       <c r="B1" s="151" t="s">
         <v>42</v>
       </c>
@@ -34757,7 +34776,7 @@
       <c r="Y1" s="76"/>
     </row>
     <row r="2" spans="1:25" ht="36.75" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A2" s="58"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="154"/>
       <c r="C2" s="155"/>
       <c r="D2" s="155"/>
@@ -34770,7 +34789,7 @@
       <c r="K2" s="156"/>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="58"/>
       <c r="B3" s="159" t="s">
         <v>117</v>
       </c>
@@ -34785,7 +34804,7 @@
       <c r="K3" s="86"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="160" t="s">
         <v>118</v>
       </c>
@@ -34800,7 +34819,7 @@
       <c r="K4" s="88"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
+      <c r="A5" s="51"/>
       <c r="B5" s="78" t="s">
         <v>119</v>
       </c>
@@ -34816,7 +34835,7 @@
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" s="36"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -34828,7 +34847,7 @@
       <c r="K6" s="18"/>
     </row>
     <row r="7" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A7" s="60"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="161" t="s">
         <v>120</v>
       </c>
@@ -34860,7 +34879,7 @@
       <c r="B9" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="C9" s="69">
+      <c r="C9" s="68">
         <v>45836</v>
       </c>
       <c r="D9" s="4"/>
@@ -34877,7 +34896,7 @@
       <c r="B10" s="19" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="61" t="s">
+      <c r="C10" s="60" t="s">
         <v>160</v>
       </c>
       <c r="D10" s="4"/>
@@ -34933,8 +34952,8 @@
       <c r="K13" s="20"/>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" s="62"/>
-      <c r="B14" s="120" t="s">
+      <c r="A14" s="61"/>
+      <c r="B14" s="121" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="76"/>
@@ -34948,7 +34967,7 @@
       <c r="K14" s="20"/>
     </row>
     <row r="15" spans="1:25" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="87"/>
       <c r="C15" s="76"/>
       <c r="D15" s="76"/>
@@ -34977,34 +34996,34 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="31"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="30"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="29"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="109" t="s">
+      <c r="A18" s="52"/>
+      <c r="B18" s="110" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="114"/>
-      <c r="D18" s="114"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
       <c r="E18" s="162"/>
-      <c r="F18" s="109" t="s">
+      <c r="F18" s="110" t="s">
         <v>126</v>
       </c>
       <c r="G18" s="93"/>
-      <c r="H18" s="109" t="s">
+      <c r="H18" s="110" t="s">
         <v>127</v>
       </c>
       <c r="I18" s="93"/>
-      <c r="J18" s="109" t="s">
+      <c r="J18" s="110" t="s">
         <v>128</v>
       </c>
       <c r="K18" s="93"/>
@@ -35017,7 +35036,7 @@
       <c r="C19" s="171"/>
       <c r="D19" s="171"/>
       <c r="E19" s="172"/>
-      <c r="F19" s="109">
+      <c r="F19" s="110">
         <v>101.55</v>
       </c>
       <c r="G19" s="93"/>
@@ -35032,7 +35051,7 @@
       <c r="K19" s="93"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="52"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="99"/>
       <c r="C20" s="76"/>
       <c r="D20" s="76"/>
@@ -35055,8 +35074,8 @@
       <c r="C21" s="81"/>
       <c r="D21" s="81"/>
       <c r="E21" s="81"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="63"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="178" t="s">
         <v>106</v>
       </c>
@@ -35068,7 +35087,7 @@
       <c r="K21" s="164"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="52"/>
+      <c r="A22" s="51"/>
       <c r="B22" s="99"/>
       <c r="C22" s="76"/>
       <c r="D22" s="76"/>
@@ -35081,17 +35100,17 @@
       <c r="K22" s="88"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="53"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="167" t="s">
         <v>130</v>
       </c>
       <c r="C23" s="92"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="46"/>
       <c r="J23" s="168">
         <f>J21</f>
         <v>523500.39992249996</v>
@@ -35112,7 +35131,7 @@
       <c r="K24" s="20"/>
     </row>
     <row r="25" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="64"/>
+      <c r="A25" s="63"/>
       <c r="B25" s="177" t="s">
         <v>131</v>
       </c>
@@ -35268,7 +35287,7 @@
       <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
+      <c r="A35" s="64"/>
       <c r="B35" s="135" t="s">
         <v>142</v>
       </c>
@@ -35283,7 +35302,7 @@
       <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
+      <c r="A36" s="64"/>
       <c r="B36" s="135" t="s">
         <v>143</v>
       </c>
@@ -35298,18 +35317,18 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="38" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="C37" s="66" t="str">
+      <c r="C37" s="65" t="str">
         <f>'input data'!B5</f>
         <v>AD2403250650768</v>
       </c>
-      <c r="D37" s="39"/>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
@@ -35358,16 +35377,16 @@
     </row>
     <row r="41" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="31"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="33"/>
-      <c r="J41" s="33"/>
-      <c r="K41" s="30"/>
+      <c r="B41" s="30"/>
+      <c r="C41" s="32"/>
+      <c r="D41" s="32"/>
+      <c r="E41" s="32"/>
+      <c r="F41" s="32"/>
+      <c r="G41" s="32"/>
+      <c r="H41" s="32"/>
+      <c r="I41" s="32"/>
+      <c r="J41" s="32"/>
+      <c r="K41" s="29"/>
     </row>
     <row r="42" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
